--- a/II. Adaptive Multi Factor Strategy/factorName.xlsx
+++ b/II. Adaptive Multi Factor Strategy/factorName.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
@@ -9,12 +9,12 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="644" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="640" uniqueCount="10">
   <si>
     <t>expansion</t>
   </si>
@@ -45,35 +45,19 @@
   <si>
     <t>yield</t>
   </si>
-  <si>
-    <t>국면</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>팩터_1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>팩터_2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>팩터_3</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
-    <numFmt numFmtId="176" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
+    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="맑은 고딕"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -81,15 +65,8 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="맑은 고딕"/>
+      <name val="Calibri"/>
       <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="8"/>
-      <name val="맑은 고딕"/>
-      <family val="3"/>
-      <charset val="129"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -133,25 +110,20 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="표준" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 테마">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -225,7 +197,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -260,7 +231,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -436,37 +406,28 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E161"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A121" workbookViewId="0">
-      <selection activeCell="B147" sqref="B147"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="37.875" customWidth="1"/>
-    <col min="2" max="2" width="21.875" customWidth="1"/>
-    <col min="3" max="3" width="18.375" customWidth="1"/>
-    <col min="4" max="4" width="23.625" customWidth="1"/>
-    <col min="5" max="5" width="15" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5">
+      <c r="B1" s="1">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1">
+        <v>0</v>
+      </c>
+      <c r="D1" s="1">
+        <v>1</v>
+      </c>
+      <c r="E1" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
       <c r="A2" s="2">
         <v>38717</v>
       </c>
@@ -483,7 +444,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5">
       <c r="A3" s="2">
         <v>38748</v>
       </c>
@@ -500,7 +461,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5">
       <c r="A4" s="2">
         <v>38776</v>
       </c>
@@ -517,7 +478,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5">
       <c r="A5" s="2">
         <v>38807</v>
       </c>
@@ -534,7 +495,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5">
       <c r="A6" s="2">
         <v>38837</v>
       </c>
@@ -551,7 +512,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5">
       <c r="A7" s="2">
         <v>38868</v>
       </c>
@@ -568,7 +529,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5">
       <c r="A8" s="2">
         <v>38898</v>
       </c>
@@ -585,7 +546,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5">
       <c r="A9" s="2">
         <v>38929</v>
       </c>
@@ -602,7 +563,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5">
       <c r="A10" s="2">
         <v>38960</v>
       </c>
@@ -619,7 +580,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5">
       <c r="A11" s="2">
         <v>38990</v>
       </c>
@@ -636,7 +597,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5">
       <c r="A12" s="2">
         <v>39021</v>
       </c>
@@ -653,7 +614,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5">
       <c r="A13" s="2">
         <v>39051</v>
       </c>
@@ -670,7 +631,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5">
       <c r="A14" s="2">
         <v>39082</v>
       </c>
@@ -687,7 +648,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5">
       <c r="A15" s="2">
         <v>39113</v>
       </c>
@@ -704,7 +665,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5">
       <c r="A16" s="2">
         <v>39141</v>
       </c>
@@ -721,7 +682,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5">
       <c r="A17" s="2">
         <v>39172</v>
       </c>
@@ -738,7 +699,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5">
       <c r="A18" s="2">
         <v>39202</v>
       </c>
@@ -755,7 +716,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5">
       <c r="A19" s="2">
         <v>39233</v>
       </c>
@@ -772,7 +733,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5">
       <c r="A20" s="2">
         <v>39263</v>
       </c>
@@ -789,7 +750,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5">
       <c r="A21" s="2">
         <v>39294</v>
       </c>
@@ -806,7 +767,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:5">
       <c r="A22" s="2">
         <v>39325</v>
       </c>
@@ -823,7 +784,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:5">
       <c r="A23" s="2">
         <v>39355</v>
       </c>
@@ -840,7 +801,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:5">
       <c r="A24" s="2">
         <v>39386</v>
       </c>
@@ -857,7 +818,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:5">
       <c r="A25" s="2">
         <v>39416</v>
       </c>
@@ -874,7 +835,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:5">
       <c r="A26" s="2">
         <v>39447</v>
       </c>
@@ -891,7 +852,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:5">
       <c r="A27" s="2">
         <v>39478</v>
       </c>
@@ -908,7 +869,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:5">
       <c r="A28" s="2">
         <v>39507</v>
       </c>
@@ -925,7 +886,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:5">
       <c r="A29" s="2">
         <v>39538</v>
       </c>
@@ -942,7 +903,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:5">
       <c r="A30" s="2">
         <v>39568</v>
       </c>
@@ -959,7 +920,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:5">
       <c r="A31" s="2">
         <v>39599</v>
       </c>
@@ -976,7 +937,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:5">
       <c r="A32" s="2">
         <v>39629</v>
       </c>
@@ -993,7 +954,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:5">
       <c r="A33" s="2">
         <v>39660</v>
       </c>
@@ -1010,7 +971,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:5">
       <c r="A34" s="2">
         <v>39691</v>
       </c>
@@ -1027,7 +988,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:5">
       <c r="A35" s="2">
         <v>39721</v>
       </c>
@@ -1044,7 +1005,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:5">
       <c r="A36" s="2">
         <v>39752</v>
       </c>
@@ -1061,7 +1022,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:5">
       <c r="A37" s="2">
         <v>39782</v>
       </c>
@@ -1078,7 +1039,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:5">
       <c r="A38" s="2">
         <v>39813</v>
       </c>
@@ -1095,7 +1056,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:5">
       <c r="A39" s="2">
         <v>39844</v>
       </c>
@@ -1112,7 +1073,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:5">
       <c r="A40" s="2">
         <v>39872</v>
       </c>
@@ -1129,7 +1090,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:5">
       <c r="A41" s="2">
         <v>39903</v>
       </c>
@@ -1146,7 +1107,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:5">
       <c r="A42" s="2">
         <v>39933</v>
       </c>
@@ -1163,7 +1124,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:5">
       <c r="A43" s="2">
         <v>39964</v>
       </c>
@@ -1180,7 +1141,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:5">
       <c r="A44" s="2">
         <v>39994</v>
       </c>
@@ -1197,7 +1158,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:5">
       <c r="A45" s="2">
         <v>40025</v>
       </c>
@@ -1214,7 +1175,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:5">
       <c r="A46" s="2">
         <v>40056</v>
       </c>
@@ -1231,7 +1192,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:5">
       <c r="A47" s="2">
         <v>40086</v>
       </c>
@@ -1248,7 +1209,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:5">
       <c r="A48" s="2">
         <v>40117</v>
       </c>
@@ -1265,7 +1226,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:5">
       <c r="A49" s="2">
         <v>40147</v>
       </c>
@@ -1282,7 +1243,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:5">
       <c r="A50" s="2">
         <v>40178</v>
       </c>
@@ -1299,7 +1260,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:5">
       <c r="A51" s="2">
         <v>40209</v>
       </c>
@@ -1316,7 +1277,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:5">
       <c r="A52" s="2">
         <v>40237</v>
       </c>
@@ -1333,7 +1294,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:5">
       <c r="A53" s="2">
         <v>40268</v>
       </c>
@@ -1350,7 +1311,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:5">
       <c r="A54" s="2">
         <v>40298</v>
       </c>
@@ -1367,7 +1328,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:5">
       <c r="A55" s="2">
         <v>40329</v>
       </c>
@@ -1384,7 +1345,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:5">
       <c r="A56" s="2">
         <v>40359</v>
       </c>
@@ -1401,7 +1362,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:5">
       <c r="A57" s="2">
         <v>40390</v>
       </c>
@@ -1418,7 +1379,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:5">
       <c r="A58" s="2">
         <v>40421</v>
       </c>
@@ -1435,7 +1396,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:5">
       <c r="A59" s="2">
         <v>40451</v>
       </c>
@@ -1452,7 +1413,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:5">
       <c r="A60" s="2">
         <v>40482</v>
       </c>
@@ -1469,7 +1430,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:5">
       <c r="A61" s="2">
         <v>40512</v>
       </c>
@@ -1486,7 +1447,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:5">
       <c r="A62" s="2">
         <v>40543</v>
       </c>
@@ -1503,7 +1464,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:5">
       <c r="A63" s="2">
         <v>40574</v>
       </c>
@@ -1520,7 +1481,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:5">
       <c r="A64" s="2">
         <v>40602</v>
       </c>
@@ -1537,7 +1498,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:5">
       <c r="A65" s="2">
         <v>40633</v>
       </c>
@@ -1554,7 +1515,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:5">
       <c r="A66" s="2">
         <v>40663</v>
       </c>
@@ -1571,7 +1532,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:5">
       <c r="A67" s="2">
         <v>40694</v>
       </c>
@@ -1588,7 +1549,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:5">
       <c r="A68" s="2">
         <v>40724</v>
       </c>
@@ -1605,7 +1566,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:5">
       <c r="A69" s="2">
         <v>40755</v>
       </c>
@@ -1622,7 +1583,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:5">
       <c r="A70" s="2">
         <v>40786</v>
       </c>
@@ -1639,7 +1600,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:5">
       <c r="A71" s="2">
         <v>40816</v>
       </c>
@@ -1656,7 +1617,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:5">
       <c r="A72" s="2">
         <v>40847</v>
       </c>
@@ -1673,7 +1634,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:5">
       <c r="A73" s="2">
         <v>40877</v>
       </c>
@@ -1690,7 +1651,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:5">
       <c r="A74" s="2">
         <v>40908</v>
       </c>
@@ -1707,7 +1668,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:5">
       <c r="A75" s="2">
         <v>40939</v>
       </c>
@@ -1724,7 +1685,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:5">
       <c r="A76" s="2">
         <v>40968</v>
       </c>
@@ -1741,7 +1702,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:5">
       <c r="A77" s="2">
         <v>40999</v>
       </c>
@@ -1758,7 +1719,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:5">
       <c r="A78" s="2">
         <v>41029</v>
       </c>
@@ -1775,7 +1736,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:5">
       <c r="A79" s="2">
         <v>41060</v>
       </c>
@@ -1792,7 +1753,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:5">
       <c r="A80" s="2">
         <v>41090</v>
       </c>
@@ -1809,7 +1770,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:5">
       <c r="A81" s="2">
         <v>41121</v>
       </c>
@@ -1826,7 +1787,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:5">
       <c r="A82" s="2">
         <v>41152</v>
       </c>
@@ -1843,7 +1804,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:5">
       <c r="A83" s="2">
         <v>41182</v>
       </c>
@@ -1860,7 +1821,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:5">
       <c r="A84" s="2">
         <v>41213</v>
       </c>
@@ -1877,7 +1838,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:5">
       <c r="A85" s="2">
         <v>41243</v>
       </c>
@@ -1894,7 +1855,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:5">
       <c r="A86" s="2">
         <v>41274</v>
       </c>
@@ -1911,7 +1872,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:5">
       <c r="A87" s="2">
         <v>41305</v>
       </c>
@@ -1928,7 +1889,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:5">
       <c r="A88" s="2">
         <v>41333</v>
       </c>
@@ -1945,7 +1906,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:5">
       <c r="A89" s="2">
         <v>41364</v>
       </c>
@@ -1962,7 +1923,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:5">
       <c r="A90" s="2">
         <v>41394</v>
       </c>
@@ -1979,7 +1940,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:5">
       <c r="A91" s="2">
         <v>41425</v>
       </c>
@@ -1996,7 +1957,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:5">
       <c r="A92" s="2">
         <v>41455</v>
       </c>
@@ -2013,7 +1974,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:5">
       <c r="A93" s="2">
         <v>41486</v>
       </c>
@@ -2030,7 +1991,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:5">
       <c r="A94" s="2">
         <v>41517</v>
       </c>
@@ -2047,7 +2008,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:5">
       <c r="A95" s="2">
         <v>41547</v>
       </c>
@@ -2064,7 +2025,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:5">
       <c r="A96" s="2">
         <v>41578</v>
       </c>
@@ -2081,7 +2042,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:5">
       <c r="A97" s="2">
         <v>41608</v>
       </c>
@@ -2098,7 +2059,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:5">
       <c r="A98" s="2">
         <v>41639</v>
       </c>
@@ -2115,7 +2076,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:5">
       <c r="A99" s="2">
         <v>41670</v>
       </c>
@@ -2132,7 +2093,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:5">
       <c r="A100" s="2">
         <v>41698</v>
       </c>
@@ -2149,7 +2110,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:5">
       <c r="A101" s="2">
         <v>41729</v>
       </c>
@@ -2166,7 +2127,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:5">
       <c r="A102" s="2">
         <v>41759</v>
       </c>
@@ -2183,7 +2144,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:5">
       <c r="A103" s="2">
         <v>41790</v>
       </c>
@@ -2200,7 +2161,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:5">
       <c r="A104" s="2">
         <v>41820</v>
       </c>
@@ -2217,7 +2178,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:5">
       <c r="A105" s="2">
         <v>41851</v>
       </c>
@@ -2234,7 +2195,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:5">
       <c r="A106" s="2">
         <v>41882</v>
       </c>
@@ -2251,7 +2212,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:5">
       <c r="A107" s="2">
         <v>41912</v>
       </c>
@@ -2268,7 +2229,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:5">
       <c r="A108" s="2">
         <v>41943</v>
       </c>
@@ -2285,7 +2246,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:5">
       <c r="A109" s="2">
         <v>41973</v>
       </c>
@@ -2302,7 +2263,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:5">
       <c r="A110" s="2">
         <v>42004</v>
       </c>
@@ -2319,7 +2280,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:5">
       <c r="A111" s="2">
         <v>42035</v>
       </c>
@@ -2336,7 +2297,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:5">
       <c r="A112" s="2">
         <v>42063</v>
       </c>
@@ -2353,7 +2314,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:5">
       <c r="A113" s="2">
         <v>42094</v>
       </c>
@@ -2370,7 +2331,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:5">
       <c r="A114" s="2">
         <v>42124</v>
       </c>
@@ -2387,7 +2348,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:5">
       <c r="A115" s="2">
         <v>42155</v>
       </c>
@@ -2404,7 +2365,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:5">
       <c r="A116" s="2">
         <v>42185</v>
       </c>
@@ -2421,7 +2382,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:5">
       <c r="A117" s="2">
         <v>42216</v>
       </c>
@@ -2438,7 +2399,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:5">
       <c r="A118" s="2">
         <v>42247</v>
       </c>
@@ -2455,7 +2416,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:5">
       <c r="A119" s="2">
         <v>42277</v>
       </c>
@@ -2472,7 +2433,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="120" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:5">
       <c r="A120" s="2">
         <v>42308</v>
       </c>
@@ -2489,7 +2450,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="121" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:5">
       <c r="A121" s="2">
         <v>42338</v>
       </c>
@@ -2506,7 +2467,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="122" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:5">
       <c r="A122" s="2">
         <v>42369</v>
       </c>
@@ -2523,7 +2484,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="123" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:5">
       <c r="A123" s="2">
         <v>42400</v>
       </c>
@@ -2540,7 +2501,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="124" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:5">
       <c r="A124" s="2">
         <v>42429</v>
       </c>
@@ -2557,7 +2518,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="125" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:5">
       <c r="A125" s="2">
         <v>42460</v>
       </c>
@@ -2574,7 +2535,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="126" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:5">
       <c r="A126" s="2">
         <v>42490</v>
       </c>
@@ -2591,7 +2552,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="127" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:5">
       <c r="A127" s="2">
         <v>42521</v>
       </c>
@@ -2608,7 +2569,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="128" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:5">
       <c r="A128" s="2">
         <v>42551</v>
       </c>
@@ -2625,7 +2586,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="129" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:5">
       <c r="A129" s="2">
         <v>42582</v>
       </c>
@@ -2642,7 +2603,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="130" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:5">
       <c r="A130" s="2">
         <v>42613</v>
       </c>
@@ -2659,7 +2620,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="131" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:5">
       <c r="A131" s="2">
         <v>42643</v>
       </c>
@@ -2676,7 +2637,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="132" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:5">
       <c r="A132" s="2">
         <v>42674</v>
       </c>
@@ -2693,7 +2654,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="133" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:5">
       <c r="A133" s="2">
         <v>42704</v>
       </c>
@@ -2710,7 +2671,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="134" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:5">
       <c r="A134" s="2">
         <v>42735</v>
       </c>
@@ -2727,7 +2688,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="135" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:5">
       <c r="A135" s="2">
         <v>42766</v>
       </c>
@@ -2744,7 +2705,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="136" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:5">
       <c r="A136" s="2">
         <v>42794</v>
       </c>
@@ -2761,7 +2722,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="137" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:5">
       <c r="A137" s="2">
         <v>42825</v>
       </c>
@@ -2778,7 +2739,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="138" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:5">
       <c r="A138" s="2">
         <v>42855</v>
       </c>
@@ -2795,7 +2756,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="139" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:5">
       <c r="A139" s="2">
         <v>42886</v>
       </c>
@@ -2812,7 +2773,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="140" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:5">
       <c r="A140" s="2">
         <v>42916</v>
       </c>
@@ -2829,7 +2790,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="141" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:5">
       <c r="A141" s="2">
         <v>42947</v>
       </c>
@@ -2846,7 +2807,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="142" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:5">
       <c r="A142" s="2">
         <v>42978</v>
       </c>
@@ -2863,7 +2824,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="143" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:5">
       <c r="A143" s="2">
         <v>43008</v>
       </c>
@@ -2880,7 +2841,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="144" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:5">
       <c r="A144" s="2">
         <v>43039</v>
       </c>
@@ -2897,7 +2858,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="145" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:5">
       <c r="A145" s="2">
         <v>43069</v>
       </c>
@@ -2914,7 +2875,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="146" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:5">
       <c r="A146" s="2">
         <v>43100</v>
       </c>
@@ -2931,7 +2892,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="147" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:5">
       <c r="A147" s="2">
         <v>43131</v>
       </c>
@@ -2948,7 +2909,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="148" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:5">
       <c r="A148" s="2">
         <v>43159</v>
       </c>
@@ -2965,7 +2926,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="149" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:5">
       <c r="A149" s="2">
         <v>43190</v>
       </c>
@@ -2982,7 +2943,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="150" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:5">
       <c r="A150" s="2">
         <v>43220</v>
       </c>
@@ -2999,7 +2960,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="151" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:5">
       <c r="A151" s="2">
         <v>43251</v>
       </c>
@@ -3016,7 +2977,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="152" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:5">
       <c r="A152" s="2">
         <v>43281</v>
       </c>
@@ -3033,7 +2994,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="153" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:5">
       <c r="A153" s="2">
         <v>43312</v>
       </c>
@@ -3050,7 +3011,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="154" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:5">
       <c r="A154" s="2">
         <v>43343</v>
       </c>
@@ -3067,7 +3028,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="155" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:5">
       <c r="A155" s="2">
         <v>43373</v>
       </c>
@@ -3084,7 +3045,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="156" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:5">
       <c r="A156" s="2">
         <v>43404</v>
       </c>
@@ -3101,7 +3062,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="157" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:5">
       <c r="A157" s="2">
         <v>43434</v>
       </c>
@@ -3118,7 +3079,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="158" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:5">
       <c r="A158" s="2">
         <v>43465</v>
       </c>
@@ -3135,7 +3096,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="159" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:5">
       <c r="A159" s="2">
         <v>43496</v>
       </c>
@@ -3152,7 +3113,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="160" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:5">
       <c r="A160" s="2">
         <v>43524</v>
       </c>
@@ -3169,7 +3130,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="161" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:5">
       <c r="A161" s="2">
         <v>43555</v>
       </c>
@@ -3187,7 +3148,6 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>